--- a/biology/Zoologie/Faune_des_Pyrénées/Faune_des_Pyrénées.xlsx
+++ b/biology/Zoologie/Faune_des_Pyrénées/Faune_des_Pyrénées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Faune_des_Pyr%C3%A9n%C3%A9es</t>
+          <t>Faune_des_Pyrénées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article traite de la faune des Pyrénées, particulièrement des espèces sauvages endémiques et des espèces ou races domestiques originaires de cette chaîne montagneuse.
 La faune des Pyrénées présente plusieurs exemples saisissants d'endémisme : Le Desman des Pyrénées peut être trouvé seulement dans certains cours d'eau et versants du nord de la chaîne, seul une autre espèce appartenant au même genre étant confinée aux fleuves du Caucase, dans la Russie méridionale. L'euprocte des Pyrénées (Calotriton asper), un cousin endémique de la salamandre, vit également dans les cours d'eau et les lacs situés aux altitudes élevées. Parmi les autres particularités de la faune pyrénéenne sont les insectes aveugles des cavernes de l'Ariège, les principaux genres étant l'Anophthalmus et l'Adelops. 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Faune_des_Pyr%C3%A9n%C3%A9es</t>
+          <t>Faune_des_Pyrénées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,8 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Bovins
-Albère
+          <t>Bovins</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Albère
 Aure-et-saint-girons
 Béarnaise
 Berger basque
@@ -525,12 +542,80 @@
 Lourdaise
 Monchina
 Pirenaica
-Terreña
-Caprins
-Catalane (race caprine)
-Pyrénées (race caprine)
-Équidés
-Âne catalan
+Terreña</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Faune_des_Pyrénées</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_des_Pyr%C3%A9n%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Espèces domestiques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Caprins</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Catalane (race caprine)
+Pyrénées (race caprine)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Faune_des_Pyrénées</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_des_Pyr%C3%A9n%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Espèces domestiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Équidés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Âne catalan
 Âne des Pyrénées
 Cheval Castillonnais
 Cheval catalan (éteint)
@@ -539,19 +624,121 @@
 Mérens (cheval)
 Mule des Pyrénées
 Pottok
-Pyrénées catalanes
-Chiens
-Ariégeois
+Pyrénées catalanes</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Faune_des_Pyrénées</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_des_Pyr%C3%A9n%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Espèces domestiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Chiens</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ariégeois
 Berger des Pyrénées
 Braque de l'Ariège
 Chien de montagne des Pyrénées ou patou des Pyrénées
 Gos d'Atura Català
-Mâtin des Pyrénées
-Oiseaux
-Dindon bleu de l'Ariège
-Euskal oiloa
-Ovins
-Aure et campan
+Mâtin des Pyrénées</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Faune_des_Pyrénées</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_des_Pyr%C3%A9n%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Espèces domestiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Oiseaux</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Dindon bleu de l'Ariège
+Euskal oiloa</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Faune_des_Pyrénées</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_des_Pyr%C3%A9n%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Espèces domestiques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ovins</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Aure et campan
 Barégeoise, utilisée pour le label Barèges-gavarnie.
 Basco-béarnaise
 Carranzana
@@ -561,45 +748,118 @@
 Manech tête noire
 Manech tête rousse
 Tarasconnaise
-Sasi ardia
-Suidés
-Pie noir du Pays basque
+Sasi ardia</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Faune_des_Pyrénées</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_des_Pyr%C3%A9n%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Espèces domestiques</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Suidés</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Pie noir du Pays basque
 Porc bagnérais
 Porc gascon</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Faune_des_Pyr%C3%A9n%C3%A9es</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Faune_des_Pyr%C3%A9n%C3%A9es</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Faune_des_Pyrénées</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_des_Pyr%C3%A9n%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Espèces sauvages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Caprins
-Bouquetin ibérique (Capra pyrenaica), la sous-espèce le Bouquetin des Pyrénées (Capra pyrenaica pyrenaica) est éteinte.
-Isard (Rupicapra pyrenaica)
-Rapaces
-Aigle de Bonelli  (Aquila fasciata)
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Caprins</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Bouquetin ibérique (Capra pyrenaica), la sous-espèce le Bouquetin des Pyrénées (Capra pyrenaica pyrenaica) est éteinte.
+Isard (Rupicapra pyrenaica)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Faune_des_Pyrénées</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_des_Pyr%C3%A9n%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Espèces sauvages</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Rapaces</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Aigle de Bonelli  (Aquila fasciata)
 Aigle royal (Aquila chrysaetos)
 Buse variable (Buteo buteo)
 Circaète Jean-le-Blanc (Circaetus gallicus)
@@ -611,9 +871,43 @@
 Pygargue à queue blanche (Haliaeetus albicilla)
 Vautour fauve (Gyps fulvus)
 Vautour percnoptère (Neophron percnopterus)
-Vautour moine (Aegypius monachus)
-Autres
-Cincle plongeur (Cinclus cinclus)
+Vautour moine (Aegypius monachus)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Faune_des_Pyrénées</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_des_Pyr%C3%A9n%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Espèces sauvages</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Cincle plongeur (Cinclus cinclus)
 Grand Tétras (Tetrao urogallus)
 Lagopède alpin (Lagopus muta)
 Loup gris (Canis lupus lupus)
@@ -622,9 +916,43 @@
 Lézard catalan (Podarcis liolepis)
 Euproctus asper
 Rana pyrenaica
-Vipère de Séoane (Vipera seoanei)
-Arachnides
-Diplocephalus culminicola
+Vipère de Séoane (Vipera seoanei)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Faune_des_Pyrénées</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_des_Pyr%C3%A9n%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Espèces sauvages</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Arachnides</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Diplocephalus culminicola
 Dresconella nivicola
 Iberina mazarredoi
 Telema tenella</t>
